--- a/REQM_OFICIAL_MatrizTrazabilidad.xlsx
+++ b/REQM_OFICIAL_MatrizTrazabilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_2F9E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECC0371-12BB-417F-9ADF-CCA8B5604CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB72BE-0BB3-40B8-8823-99C9774F3F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Rastreabilidad" sheetId="4" r:id="rId1"/>
@@ -18,14 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matriz de Rastreabilidad'!$A$14:$H$14</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -477,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Elementos comunes para todos los requerimientos</t>
   </si>
@@ -555,13 +553,31 @@
   </si>
   <si>
     <t>Cancelado</t>
+  </si>
+  <si>
+    <t>RF_3.1.1a</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>RF_3.1.1b</t>
+  </si>
+  <si>
+    <t>SRS-SISQSF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -664,6 +680,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -909,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -995,6 +1016,10 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1415,11 +1440,11 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
@@ -1440,7 +1465,7 @@
     <col min="29" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1459,7 +1484,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1468,7 +1493,9 @@
       <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="H2" s="23"/>
       <c r="I2" s="26" t="s">
         <v>2</v>
@@ -1480,7 +1507,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1503,7 +1530,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1">
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1522,7 +1549,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75" customHeight="1">
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1541,7 +1568,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1560,7 +1587,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="27.75" customHeight="1">
+    <row r="7" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1581,7 +1608,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1">
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
@@ -1600,7 +1627,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -1619,7 +1646,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1">
+    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -1635,7 +1662,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -1648,7 +1675,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="G12" s="11" t="s">
@@ -1662,7 +1689,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1680,7 +1707,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="42" customHeight="1">
+    <row r="14" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
@@ -1716,12 +1743,22 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+    <row r="15" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1731,8 +1768,8 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1743,7 +1780,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:15" ht="39.75" customHeight="1">
+    <row r="17" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1755,7 +1792,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:15" ht="39.75" customHeight="1">
+    <row r="18" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1767,7 +1804,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1779,7 +1816,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1794,7 +1831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1809,7 +1846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1821,7 +1858,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1833,7 +1870,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1845,7 +1882,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1857,7 +1894,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1869,7 +1906,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1881,7 +1918,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
@@ -1893,7 +1930,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1903,7 +1940,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1913,7 +1950,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1923,7 +1960,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1933,7 +1970,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1943,7 +1980,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
